--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="sheet_title" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,13 +17,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Aptos"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,8 +55,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -123,17 +137,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="my_table" displayName="my_table" ref="A1:C4" headerRowCount="1">
-  <autoFilter ref="A1:C4"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Leaf Color"/>
-    <tableColumn id="3" name="Height"/>
-  </tableColumns>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,89 +437,68 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Leaf Color</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Maple</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>549</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Oak</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>783</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Pine</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>1204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -17,22 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Aptos"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Aptos"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,14 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,64 +422,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Leaf Color</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Maple</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" t="n">
         <v>549</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Oak</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" t="n">
         <v>783</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Pine</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" t="n">
         <v>1204</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Calibri"/>
+      <name val="Aptos"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
